--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
@@ -451,7 +451,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.collection.bemonsteringsprocedure.bemonsteringsprocedures</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E2" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp-1.1|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
@@ -489,7 +489,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.22475-1-2007</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E3" t="str">
         <v>null</v>
@@ -504,7 +504,7 @@
         <v>22475-1-2007</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J3" t="str">
         <v>null</v>
@@ -527,7 +527,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.22475-1-2021</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E4" t="str">
         <v>null</v>
@@ -542,7 +542,7 @@
         <v>22475-1-2021</v>
       </c>
       <c r="I4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J4" t="str">
         <v>null</v>
@@ -565,7 +565,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.5119-1991</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E5" t="str">
         <v>null</v>
@@ -580,7 +580,7 @@
         <v>5119-1991</v>
       </c>
       <c r="I5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J5" t="str">
         <v>null</v>
@@ -603,7 +603,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.bam</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E6" t="str">
         <v>null</v>
@@ -618,7 +618,7 @@
         <v>bam</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J6" t="str">
         <v>null</v>
@@ -641,7 +641,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.boc</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
@@ -656,7 +656,7 @@
         <v>boc</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J7" t="str">
         <v>null</v>
@@ -679,7 +679,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cam2019</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E8" t="str">
         <v>null</v>
@@ -694,7 +694,7 @@
         <v>cam2019</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J8" t="str">
         <v>null</v>
@@ -717,7 +717,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cma</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E9" t="str">
         <v>null</v>
@@ -732,7 +732,7 @@
         <v>cma</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J9" t="str">
         <v>null</v>
@@ -755,7 +755,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.csp-1.1</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E10" t="str">
         <v>null</v>
@@ -770,7 +770,7 @@
         <v>csp-1.1</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J10" t="str">
         <v>null</v>
@@ -793,7 +793,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.wac</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="E11" t="str">
         <v>null</v>
@@ -808,7 +808,7 @@
         <v>wac</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="J11" t="str">
         <v>null</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>

--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,296 +413,272 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>seeAlso</v>
+      </c>
+      <c r="E1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="F1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="H1" t="str">
+        <v>note</v>
+      </c>
+      <c r="I1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
-        <v>seeAlso</v>
-      </c>
-      <c r="H1" t="str">
-        <v>notation</v>
-      </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>topConceptOf</v>
-      </c>
-      <c r="J1" t="str">
-        <v>definition</v>
       </c>
       <c r="K1" t="str">
         <v>hasTopConcept</v>
       </c>
-      <c r="L1" t="str">
-        <v>note</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/bemonsteringsprocedure/bemonsteringsprocedures</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.bemonsteringsprocedure.bemonsteringsprocedures</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.22475-1-2007</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://app.nbn.be/data/r/platform/frontend/detail?p40_id=241294&amp;p40_language_code=nl&amp;p40_detail_id=36579</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp-1.1|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
+        <v>NBN EN ISO standaard voor 'Geotechnisch onderzoek en beproeving - Monsternemingsmethoden en grondwatermetingen - Deel 1: Technische uitvoeringsprincipes' versie 2007.</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van bemonsteringsprocedures.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G2" t="str">
-        <v>null</v>
+        <v>22475-1-2007</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>NBN EN ISO standaard voor 'Geotechnisch onderzoek en beproeving - Monsternemingsmethoden en grondwatermetingen - Deel 1: Technische uitvoeringsprincipes' versie 2007.</v>
       </c>
       <c r="I2" t="str">
-        <v>null</v>
+        <v>NBN EN ISO 22475-1:2007</v>
       </c>
       <c r="J2" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K2" t="str">
-        <v>null</v>
-      </c>
-      <c r="L2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.22475-1-2007</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.22475-1-2021</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://app.nbn.be/data/r/platform/frontend/detail?p40_id=188163&amp;p40_language_code=en&amp;p40_detail_id=98267</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>NBN EN ISO standaard voor 'Geotechnical investigation and testing - Sampling methods and groundwater measurements - Part 1: Technical principles for the sampling of soil, rock and groundwater' versie 2021.</v>
       </c>
       <c r="F3" t="str">
-        <v>NBN EN ISO 22475-1:2007</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G3" t="str">
-        <v>https://app.nbn.be/data/r/platform/frontend/detail?p40_id=241294&amp;p40_language_code=nl&amp;p40_detail_id=36579</v>
+        <v>22475-1-2021</v>
       </c>
       <c r="H3" t="str">
-        <v>22475-1-2007</v>
+        <v>NBN EN ISO standaard voor 'Geotechnical investigation and testing - Sampling methods and groundwater measurements - Part 1: Technical principles for the sampling of soil, rock and groundwater' versie 2021.</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>NBN EN ISO 22475-1:2021</v>
       </c>
       <c r="J3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K3" t="str">
-        <v>null</v>
-      </c>
-      <c r="L3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.22475-1-2021</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.5119-1991</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://www.nen.nl/en/nen-5119-1991-nl-7926</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>NEN EN ISO standaard voor 'Geotechniek - Boren en monsterneming in grond' versie 1991.</v>
       </c>
       <c r="F4" t="str">
-        <v>NBN EN ISO 22475-1:2021</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G4" t="str">
-        <v>https://app.nbn.be/data/r/platform/frontend/detail?p40_id=188163&amp;p40_language_code=en&amp;p40_detail_id=98267</v>
+        <v>5119-1991</v>
       </c>
       <c r="H4" t="str">
-        <v>22475-1-2021</v>
+        <v>NEN EN ISO standaard voor 'Geotechniek - Boren en monsterneming in grond' versie 1991.</v>
       </c>
       <c r="I4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>NEN 5119:1991</v>
       </c>
       <c r="J4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K4" t="str">
-        <v>null</v>
-      </c>
-      <c r="L4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.5119-1991</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.bam</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/mest-bodem-en-veevoeder-vlm/compendium-bam</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>Het compendium voor bemonsterings- en analysemethodes voor mest, bodem en veevoeder in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="F5" t="str">
-        <v>NEN 5119:1991</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G5" t="str">
-        <v>https://www.nen.nl/en/nen-5119-1991-nl-7926</v>
+        <v>bam</v>
       </c>
       <c r="H5" t="str">
-        <v>5119-1991</v>
+        <v>Het compendium voor bemonsterings- en analysemethodes voor mest, bodem en veevoeder in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="I5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>Compendium BAM</v>
       </c>
       <c r="J5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K5" t="str">
-        <v>null</v>
-      </c>
-      <c r="L5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.bam</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.boc</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/bodembescherming-gop/compendium-boc</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>Het compendium voor de monsterneming, meting en analyse in het kader van bodembescherming, dit compendium is van toepassing voor laboratoria erkend voor de discipline bodem, deeldomein bodembescherming in het kader van het Besluit van de Vlaamse Regering over de betalingen in het kader van het GLB.</v>
       </c>
       <c r="F6" t="str">
-        <v>Compendium BAM</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G6" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/mest-bodem-en-veevoeder-vlm/compendium-bam</v>
+        <v>boc</v>
       </c>
       <c r="H6" t="str">
-        <v>bam</v>
+        <v>Het compendium voor de monsterneming, meting en analyse in het kader van bodembescherming, dit compendium is van toepassing voor laboratoria erkend voor de discipline bodem, deeldomein bodembescherming in het kader van het Besluit van de Vlaamse Regering over de betalingen in het kader van het GLB.</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>Compendium BOC</v>
       </c>
       <c r="J6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K6" t="str">
-        <v>null</v>
-      </c>
-      <c r="L6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.boc</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cam2019</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>Compendium BOC</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G7" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/bodembescherming-gop/compendium-boc</v>
+        <v>cam2019</v>
       </c>
       <c r="H7" t="str">
-        <v>boc</v>
+        <v>null</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>Code van Goede Praktijk voor Archeologie en Metaaldetectie</v>
       </c>
       <c r="J7" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K7" t="str">
-        <v>null</v>
-      </c>
-      <c r="L7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cam2019</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cgpam</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
       </c>
       <c r="F8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="G8" t="str">
+        <v>cgpam</v>
+      </c>
+      <c r="H8" t="str">
+        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
+      </c>
+      <c r="I8" t="str">
         <v>Code van Goede Praktijk voor Archeologie en Metaaldetectie</v>
       </c>
-      <c r="G8" t="str">
-        <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
-      </c>
-      <c r="H8" t="str">
-        <v>cam2019</v>
-      </c>
-      <c r="I8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
-      </c>
       <c r="J8" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K8" t="str">
-        <v>null</v>
-      </c>
-      <c r="L8" t="str">
         <v>null</v>
       </c>
     </row>
@@ -717,30 +693,27 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cma</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/bodem-en-afvalstoffen-ovam/compendium-cma</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="F9" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="G9" t="str">
+        <v>cma</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
+      </c>
+      <c r="I9" t="str">
         <v>Compendium CMA</v>
       </c>
-      <c r="G9" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/bodem-en-afvalstoffen-ovam/compendium-cma</v>
-      </c>
-      <c r="H9" t="str">
-        <v>cma</v>
-      </c>
-      <c r="I9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
-      </c>
       <c r="J9" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K9" t="str">
-        <v>null</v>
-      </c>
-      <c r="L9" t="str">
         <v>null</v>
       </c>
     </row>
@@ -755,30 +728,27 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.csp-1.1</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://omgeving.vlaanderen.be/sites/default/files/2023-05/protocol%20staalname%20Cmon%201.1%20-%20werkdocument.pdf</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
       </c>
       <c r="F10" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="G10" t="str">
+        <v>csp-1.1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+      </c>
+      <c r="I10" t="str">
         <v>Cmon staalnameprotocol</v>
       </c>
-      <c r="G10" t="str">
-        <v>https://omgeving.vlaanderen.be/sites/default/files/2023-05/protocol%20staalname%20Cmon%201.1%20-%20werkdocument.pdf</v>
-      </c>
-      <c r="H10" t="str">
-        <v>csp-1.1</v>
-      </c>
-      <c r="I10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
-      </c>
       <c r="J10" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K10" t="str">
-        <v>null</v>
-      </c>
-      <c r="L10" t="str">
         <v>null</v>
       </c>
     </row>
@@ -793,30 +763,27 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.wac</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/water-gop/compendium-wac</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
       </c>
       <c r="F11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="G11" t="str">
+        <v>wac</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+      </c>
+      <c r="I11" t="str">
         <v>Compendium WAC</v>
       </c>
-      <c r="G11" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/water-gop/compendium-wac</v>
-      </c>
-      <c r="H11" t="str">
-        <v>wac</v>
-      </c>
-      <c r="I11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
-      </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="K11" t="str">
-        <v>null</v>
-      </c>
-      <c r="L11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -834,33 +801,30 @@
         <v>null</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
       </c>
       <c r="F12" t="str">
+        <v>null</v>
+      </c>
+      <c r="G12" t="str">
+        <v>null</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
+      </c>
+      <c r="I12" t="str">
         <v>Codelijst bemonsteringsprocedure.</v>
       </c>
-      <c r="G12" t="str">
-        <v>null</v>
-      </c>
-      <c r="H12" t="str">
-        <v>null</v>
-      </c>
-      <c r="I12" t="str">
-        <v>null</v>
-      </c>
       <c r="J12" t="str">
-        <v>Beschrijving welke procedure werd gevolgd bij de bemonstering.</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp-1.1|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
-      </c>
-      <c r="L12" t="str">
-        <v>Beschrijving welke procedure werd gevolgd bij de bemonstering.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp-1.1|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,28 +614,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cam2019</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cgpam</v>
       </c>
       <c r="D7" t="str">
         <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
       </c>
       <c r="F7" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G7" t="str">
-        <v>cam2019</v>
+        <v>cgpam</v>
       </c>
       <c r="H7" t="str">
-        <v>null</v>
+        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
       </c>
       <c r="I7" t="str">
         <v>Code van Goede Praktijk voor Archeologie en Metaaldetectie</v>
@@ -649,31 +649,31 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cgpam</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cma</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/bodem-en-afvalstoffen-ovam/compendium-cma</v>
       </c>
       <c r="E8" t="str">
-        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
+        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="F8" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G8" t="str">
-        <v>cgpam</v>
+        <v>cma</v>
       </c>
       <c r="H8" t="str">
-        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
+        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="I8" t="str">
-        <v>Code van Goede Praktijk voor Archeologie en Metaaldetectie</v>
+        <v>Compendium CMA</v>
       </c>
       <c r="J8" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -684,31 +684,31 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cma</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.csp</v>
       </c>
       <c r="D9" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/bodem-en-afvalstoffen-ovam/compendium-cma</v>
+        <v>https://omgeving.vlaanderen.be/sites/default/files/2023-05/protocol%20staalname%20Cmon%201.1%20-%20werkdocument.pdf</v>
       </c>
       <c r="E9" t="str">
-        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
+        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
       </c>
       <c r="F9" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G9" t="str">
-        <v>cma</v>
+        <v>csp</v>
       </c>
       <c r="H9" t="str">
-        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
+        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
       </c>
       <c r="I9" t="str">
-        <v>Compendium CMA</v>
+        <v>Cmon staalnameprotocol</v>
       </c>
       <c r="J9" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -719,31 +719,31 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp-1.1</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.csp-1.1</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.wac</v>
       </c>
       <c r="D10" t="str">
-        <v>https://omgeving.vlaanderen.be/sites/default/files/2023-05/protocol%20staalname%20Cmon%201.1%20-%20werkdocument.pdf</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/water-gop/compendium-wac</v>
       </c>
       <c r="E10" t="str">
-        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
       </c>
       <c r="F10" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G10" t="str">
-        <v>csp-1.1</v>
+        <v>wac</v>
       </c>
       <c r="H10" t="str">
-        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
       </c>
       <c r="I10" t="str">
-        <v>Cmon staalnameprotocol</v>
+        <v>Compendium WAC</v>
       </c>
       <c r="J10" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -754,77 +754,42 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.wac</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.bemonsteringsprocedure</v>
       </c>
       <c r="D11" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/water-gop/compendium-wac</v>
+        <v>null</v>
       </c>
       <c r="E11" t="str">
-        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+        <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>null</v>
       </c>
       <c r="G11" t="str">
-        <v>wac</v>
+        <v>null</v>
       </c>
       <c r="H11" t="str">
-        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+        <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
       </c>
       <c r="I11" t="str">
-        <v>Compendium WAC</v>
+        <v>Codelijst bemonsteringsprocedure.</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
-      </c>
-      <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.bemonsteringsprocedure</v>
-      </c>
-      <c r="D12" t="str">
-        <v>null</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
-      </c>
-      <c r="F12" t="str">
-        <v>null</v>
-      </c>
-      <c r="G12" t="str">
-        <v>null</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Codelijst bemonsteringsprocedure.</v>
-      </c>
-      <c r="J12" t="str">
-        <v>null</v>
-      </c>
-      <c r="K12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cam2019|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp-1.1|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/bemonsteringsprocedure/bemonsteringsprocedure.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,31 +579,31 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bbb</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.boc</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.bbb</v>
       </c>
       <c r="D6" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/bodembescherming-gop/compendium-boc</v>
+        <v>null</v>
       </c>
       <c r="E6" t="str">
-        <v>Het compendium voor de monsterneming, meting en analyse in het kader van bodembescherming, dit compendium is van toepassing voor laboratoria erkend voor de discipline bodem, deeldomein bodembescherming in het kader van het Besluit van de Vlaamse Regering over de betalingen in het kader van het GLB.</v>
+        <v>De procedure voor het graven van een profielput en nemen van bodemmonsters in de wand van de profielput zoals toegepast door het 'Centrum voor Grondonderzoek' gedurende de staalnamecampagne die werd uitgevoerd van 1949 tot 1971 voor het opstellen van de Belgische bodemkaart.</v>
       </c>
       <c r="F6" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G6" t="str">
-        <v>boc</v>
+        <v>bbb</v>
       </c>
       <c r="H6" t="str">
-        <v>Het compendium voor de monsterneming, meting en analyse in het kader van bodembescherming, dit compendium is van toepassing voor laboratoria erkend voor de discipline bodem, deeldomein bodembescherming in het kader van het Besluit van de Vlaamse Regering over de betalingen in het kader van het GLB.</v>
+        <v>De procedure voor het graven van een profielput en nemen van bodemmonsters in de wand van de profielput zoals toegepast door het 'Centrum voor Grondonderzoek' gedurende de staalnamecampagne die werd uitgevoerd van 1949 tot 1971 voor het opstellen van de Belgische bodemkaart.</v>
       </c>
       <c r="I6" t="str">
-        <v>Compendium BOC</v>
+        <v>Belgische bodemkartering bodemprofiel</v>
       </c>
       <c r="J6" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -614,31 +614,31 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bbo</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cgpam</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.bbo</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
+        <v>null</v>
       </c>
       <c r="E7" t="str">
-        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
+        <v>De procedure voor het nemen van oppervlakte bodemmonsters zoals toegepast door het 'Centrum voor Grondonderzoek' gedurende de staalnamecampagne die werd uitgevoerd van 1949 tot 1971 voor het opstellen van de Belgische bodemkaart.</v>
       </c>
       <c r="F7" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G7" t="str">
-        <v>cgpam</v>
+        <v>bbo</v>
       </c>
       <c r="H7" t="str">
-        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
+        <v>De procedure voor het nemen van oppervlakte bodemmonsters zoals toegepast door het 'Centrum voor Grondonderzoek' gedurende de staalnamecampagne die werd uitgevoerd van 1949 tot 1971 voor het opstellen van de Belgische bodemkaart.</v>
       </c>
       <c r="I7" t="str">
-        <v>Code van Goede Praktijk voor Archeologie en Metaaldetectie</v>
+        <v>Belgische bodemkartering oppervlaktemonster</v>
       </c>
       <c r="J7" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -649,31 +649,31 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cma</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.boc</v>
       </c>
       <c r="D8" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/bodem-en-afvalstoffen-ovam/compendium-cma</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/bodembescherming-gop/compendium-boc</v>
       </c>
       <c r="E8" t="str">
-        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
+        <v>Het compendium voor de monsterneming, meting en analyse in het kader van bodembescherming, dit compendium is van toepassing voor laboratoria erkend voor de discipline bodem, deeldomein bodembescherming in het kader van het Besluit van de Vlaamse Regering over de betalingen in het kader van het GLB.</v>
       </c>
       <c r="F8" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G8" t="str">
-        <v>cma</v>
+        <v>boc</v>
       </c>
       <c r="H8" t="str">
-        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
+        <v>Het compendium voor de monsterneming, meting en analyse in het kader van bodembescherming, dit compendium is van toepassing voor laboratoria erkend voor de discipline bodem, deeldomein bodembescherming in het kader van het Besluit van de Vlaamse Regering over de betalingen in het kader van het GLB.</v>
       </c>
       <c r="I8" t="str">
-        <v>Compendium CMA</v>
+        <v>Compendium BOC</v>
       </c>
       <c r="J8" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -684,31 +684,31 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.csp</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cgpam</v>
       </c>
       <c r="D9" t="str">
-        <v>https://omgeving.vlaanderen.be/sites/default/files/2023-05/protocol%20staalname%20Cmon%201.1%20-%20werkdocument.pdf</v>
+        <v>https://www.onroerenderfgoed.be/sites/default/files/2019-03/CGP_V4_geen_TC_20190322.pdf</v>
       </c>
       <c r="E9" t="str">
-        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
       </c>
       <c r="F9" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G9" t="str">
-        <v>csp</v>
+        <v>cgpam</v>
       </c>
       <c r="H9" t="str">
-        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+        <v>De Code van Goede Praktijk voor Archeologie en Metaaldetectie voor erkende archeologen en erkende metaaldetectoristen in Vlaanderen. Deze code is bedoeld voor de uitvoering van en rapportering over archeologisch vooronderzoek en archeologische opgravingen en voor het gebruik van metaaldetectoren.</v>
       </c>
       <c r="I9" t="str">
-        <v>Cmon staalnameprotocol</v>
+        <v>Code van Goede Praktijk voor Archeologie en Metaaldetectie</v>
       </c>
       <c r="J9" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -719,31 +719,31 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.wac</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.cma</v>
       </c>
       <c r="D10" t="str">
-        <v>https://emis.vito.be/nl/erkende-laboratoria/water-gop/compendium-wac</v>
+        <v>https://emis.vito.be/nl/erkende-laboratoria/bodem-en-afvalstoffen-ovam/compendium-cma</v>
       </c>
       <c r="E10" t="str">
-        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="F10" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
       </c>
       <c r="G10" t="str">
-        <v>wac</v>
+        <v>cma</v>
       </c>
       <c r="H10" t="str">
-        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+        <v>Het compendium voor de monsterneming en analyse in het kader van de Vlaamse milieuwetgeving.</v>
       </c>
       <c r="I10" t="str">
-        <v>Compendium WAC</v>
+        <v>Compendium CMA</v>
       </c>
       <c r="J10" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
@@ -754,42 +754,112 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp</v>
       </c>
       <c r="B11" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C11" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.csp</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://omgeving.vlaanderen.be/sites/default/files/2023-05/protocol%20staalname%20Cmon%201.1%20-%20werkdocument.pdf</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="G11" t="str">
+        <v>csp</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Het staalnameprotocol voor de bodembemonstering aan de hand van een grondboring voor het bepalen van de koolstofvoorraad binnen het Vlaamse bodemkoolstofmonitoringnetwerk 'Cmon'.</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Cmon staalnameprotocol</v>
+      </c>
+      <c r="J11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="K11" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
+      </c>
+      <c r="B12" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C12" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.bemonsteringsprocedure.wac</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://emis.vito.be/nl/erkende-laboratoria/water-gop/compendium-wac</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="G12" t="str">
+        <v>wac</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Het compendium voor de monsterneming, meting en analyse van water voor  laboratoria in het kader van de Vlaamse erkenningswetgeving VLAREL.</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Compendium WAC</v>
+      </c>
+      <c r="J12" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="K12" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/bemonsteringsprocedure</v>
+      </c>
+      <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C13" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.bemonsteringsprocedure</v>
       </c>
-      <c r="D11" t="str">
-        <v>null</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="D13" t="str">
+        <v>null</v>
+      </c>
+      <c r="E13" t="str">
         <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
       </c>
-      <c r="F11" t="str">
-        <v>null</v>
-      </c>
-      <c r="G11" t="str">
-        <v>null</v>
-      </c>
-      <c r="H11" t="str">
+      <c r="F13" t="str">
+        <v>null</v>
+      </c>
+      <c r="G13" t="str">
+        <v>null</v>
+      </c>
+      <c r="H13" t="str">
         <v>Een workflow, protocol, plan, algoritme of berekeningswijze waarin wordt gespecifieerd hoe de bemonstering moet worden uitgevoerd.</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I13" t="str">
         <v>Codelijst bemonsteringsprocedure.</v>
       </c>
-      <c r="J11" t="str">
-        <v>null</v>
-      </c>
-      <c r="K11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
+      <c r="J13" t="str">
+        <v>null</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2007|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/22475-1-2021|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/5119-1991|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bbb|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/bbo|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/boc|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cgpam|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/cma|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/csp|https://data.bodemenondergrond.vlaanderen.be/id/concept/bemonsteringsprocedure/wac</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K13"/>
   </ignoredErrors>
 </worksheet>
 </file>